--- a/data/trans_orig/P74B2S1_2015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S1_2015-Estudios-trans_orig.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,75%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>48,0%</t>
+          <t>48,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>11,08%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>7,54%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,03%</t>
+          <t>43,92%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,12%</t>
+          <t>65,33%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>90,75%</t>
+          <t>90,87%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>83,65%</t>
+          <t>83,11%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>89,92%</t>
+          <t>89,56%</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,32%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,85%</t>
+          <t>57,62%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>21,6%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>12,2%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>51,36%</t>
+          <t>52,25%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82,2%</t>
+          <t>81,97%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>91,28%</t>
+          <t>91,17%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>69,67%</t>
+          <t>68,89%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>80,46%</t>
+          <t>80,56%</t>
         </is>
       </c>
     </row>
@@ -1409,12 +1409,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>54,79%</t>
+          <t>55,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>22,6%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>30,73%</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>33,61%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>15,49%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>40,8%</t>
+          <t>37,8%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>86,43%</t>
+          <t>85,62%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>75,07%</t>
+          <t>74,96%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>65,88%</t>
+          <t>64,83%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>91,37%</t>
+          <t>91,1%</t>
         </is>
       </c>
     </row>
@@ -1768,12 +1768,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>47,4%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>14,38%</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>8,02%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>41,47%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>57,18%</t>
+          <t>57,39%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>88,66%</t>
+          <t>88,6%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>93,34%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>78,86%</t>
+          <t>79,3%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>84,91%</t>
+          <t>84,87%</t>
         </is>
       </c>
     </row>
